--- a/documentos/Sigmoide.xlsx
+++ b/documentos/Sigmoide.xlsx
@@ -248,7 +248,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -285,11 +285,11 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>-0.274</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
         <f aca="false">1/(1+EXP(-A2))</f>
-        <v>0.431925365643412</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>-1.317</v>
@@ -313,8 +313,8 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="n">
-        <f aca="false">1-B2</f>
-        <v>0.568074634356588</v>
+        <f aca="false">0-B2</f>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -325,7 +325,7 @@
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="n">
         <f aca="false">B2*(1-B2)</f>
-        <v>0.245365844157217</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -336,7 +336,7 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="n">
         <f aca="false">B4*B6</f>
-        <v>0.139386112203207</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
